--- a/GurobiModel/Symmetry_Lexicographic_ordering_evaluation.xlsx
+++ b/GurobiModel/Symmetry_Lexicographic_ordering_evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
   <si>
     <t>n</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Getestet mit der data Funktion data = build_real_data_sample(n=n,r=r,p=p,tseed=tseed), die TumOnline und Moses Data einliest und ein Random Sample der angegebenen Größe ausgiebt</t>
   </si>
   <si>
-    <t>Heuristics and Cuts turned off</t>
-  </si>
-  <si>
     <t>All Data</t>
   </si>
   <si>
@@ -83,24 +80,6 @@
   </si>
   <si>
     <t>n:100 - p:20 - r:20</t>
-  </si>
-  <si>
-    <t>Mittelwert von obj val without SR</t>
-  </si>
-  <si>
-    <t>Mittelwert von number of nodes visited  without SR</t>
-  </si>
-  <si>
-    <t>Mittelwert von obj val with SR</t>
-  </si>
-  <si>
-    <t>Mittelwert von number of nodes visited with SR</t>
-  </si>
-  <si>
-    <t>solved problems with SR</t>
-  </si>
-  <si>
-    <t>solved problems without SR</t>
   </si>
   <si>
     <t>Problem Size Summary</t>
@@ -127,9 +106,6 @@
     <t>Evaluation lexicographic ordering constraints for the rooms (GurobiLinear_v_15_more_covers vs GurobiLinear_v_22_l2  vs GurobiLinear_v_22_l3)</t>
   </si>
   <si>
-    <t>Symmetry removel seems to be always faster. The tigther constraint of l3 is does not really lead to faster results</t>
-  </si>
-  <si>
     <t>n:200 - p:40 - r:20</t>
   </si>
   <si>
@@ -150,12 +126,48 @@
   <si>
     <t>number of nodes visited3</t>
   </si>
+  <si>
+    <t>Heuristics</t>
+  </si>
+  <si>
+    <t>Cuts</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>n:400 - p:60 - r:40</t>
+  </si>
+  <si>
+    <t>number solved</t>
+  </si>
+  <si>
+    <t>number solved l2</t>
+  </si>
+  <si>
+    <t>number solved l3</t>
+  </si>
+  <si>
+    <t>mean NodeCount</t>
+  </si>
+  <si>
+    <t>mean NodeCount ll2</t>
+  </si>
+  <si>
+    <t>mean NodeCOunt l3</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Symmetry removel seems to be always faster. The tigther constraint of l3 does not really lead to faster results, but sometimes to slightly worse( a few rooms more) objective value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -353,18 +371,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -417,35 +446,42 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Maximilian Fiedler" refreshedDate="42561.985830439815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="47">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Maximilian Fiedler" refreshedDate="42562.419201273151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="47">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle1"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="15">
     <cacheField name="Test" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="45"/>
     </cacheField>
     <cacheField name="Problem Size" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="n:100 - p:20 - r:20"/>
         <s v="n:200 - p:40 - r:20"/>
+        <s v="n:400 - p:60 - r:40"/>
         <s v="n: - p: - r:"/>
       </sharedItems>
     </cacheField>
     <cacheField name="n" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="200"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="400"/>
     </cacheField>
     <cacheField name="p" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="40"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="60"/>
     </cacheField>
     <cacheField name="r" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="40"/>
     </cacheField>
     <cacheField name="tseed" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="23" maxValue="954322"/>
     </cacheField>
+    <cacheField name="Heuristics" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cuts" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="running time (in s)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="3000" count="14">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="8000" count="15">
         <n v="10"/>
         <n v="20"/>
         <n v="30"/>
@@ -459,26 +495,35 @@
         <n v="2000"/>
         <n v="2500"/>
         <n v="3000"/>
+        <n v="8000"/>
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="obj val without SR" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="107" maxValue="162"/>
+    <cacheField name="obj val" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="107" maxValue="162" count="7">
+        <s v="-"/>
+        <n v="111"/>
+        <n v="121"/>
+        <n v="113"/>
+        <n v="107"/>
+        <n v="162"/>
+        <m/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="number of nodes visited  without SR" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="186" maxValue="76451"/>
+    <cacheField name="number of nodes visited" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="186" maxValue="364844"/>
     </cacheField>
-    <cacheField name="obj val with SR" numFmtId="0">
+    <cacheField name="obj val2" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="108" maxValue="245"/>
     </cacheField>
-    <cacheField name="number of nodes visited with SR" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="159" maxValue="103244"/>
+    <cacheField name="number of nodes visited2" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="159" maxValue="162184"/>
     </cacheField>
-    <cacheField name="obj val with SR2" numFmtId="0">
+    <cacheField name="obj val3" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="108" maxValue="245"/>
     </cacheField>
-    <cacheField name="number of nodes visited with SR3" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="479" maxValue="89265"/>
+    <cacheField name="number of nodes visited3" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="479" maxValue="109785"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -498,8 +543,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="34534"/>
-    <x v="0"/>
-    <s v="-"/>
+    <s v="off"/>
+    <s v="off"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="986"/>
     <s v="-"/>
     <n v="742"/>
@@ -513,8 +560,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="34534"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="1"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="1811"/>
     <n v="108"/>
     <n v="2508"/>
@@ -528,8 +577,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="34534"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="2"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="2789"/>
     <n v="108"/>
     <n v="4983"/>
@@ -543,8 +594,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="34534"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="3"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="4965"/>
     <n v="108"/>
     <n v="7834"/>
@@ -558,8 +611,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="34534"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="4"/>
-    <n v="111"/>
+    <x v="1"/>
     <n v="6441"/>
     <n v="108"/>
     <n v="11645"/>
@@ -573,8 +628,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
-    <x v="0"/>
-    <s v="-"/>
+    <s v="off"/>
+    <s v="off"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="634"/>
     <s v="-"/>
     <n v="624"/>
@@ -588,8 +645,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="1"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="2299"/>
     <n v="118"/>
     <n v="1241"/>
@@ -603,8 +662,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="2"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="2569"/>
     <n v="115"/>
     <n v="2432"/>
@@ -618,8 +679,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="3"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="3765"/>
     <n v="115"/>
     <n v="3740"/>
@@ -633,8 +696,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="4"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="5202"/>
     <n v="115"/>
     <n v="6561"/>
@@ -648,8 +713,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="5"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="6575"/>
     <n v="115"/>
     <n v="8483"/>
@@ -663,8 +730,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="23"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="6"/>
-    <n v="121"/>
+    <x v="2"/>
     <n v="7291"/>
     <n v="115"/>
     <n v="11620"/>
@@ -678,8 +747,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="6023"/>
-    <x v="0"/>
-    <s v="-"/>
+    <s v="off"/>
+    <s v="off"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="1167"/>
     <s v="-"/>
     <n v="732"/>
@@ -693,8 +764,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="6023"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="1"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="3079"/>
     <n v="112"/>
     <n v="1947"/>
@@ -708,8 +781,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="6023"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="2"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="4009"/>
     <n v="111"/>
     <n v="4599"/>
@@ -723,8 +798,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="6023"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="3"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="5361"/>
     <n v="111"/>
     <n v="7281"/>
@@ -738,8 +815,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="6023"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="4"/>
-    <n v="113"/>
+    <x v="3"/>
     <n v="7880"/>
     <n v="111"/>
     <n v="7917"/>
@@ -753,8 +832,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="6023"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="5"/>
-    <n v="107"/>
+    <x v="4"/>
     <n v="10363"/>
     <n v="111"/>
     <n v="11379"/>
@@ -768,8 +849,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="954322"/>
-    <x v="0"/>
-    <s v="-"/>
+    <s v="off"/>
+    <s v="off"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="186"/>
     <s v="-"/>
     <n v="159"/>
@@ -783,8 +866,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="954322"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="1"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="2224"/>
     <s v="-"/>
     <n v="1037"/>
@@ -798,8 +883,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="954322"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="2"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="1077"/>
     <s v="-"/>
     <n v="1065"/>
@@ -813,8 +900,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="954322"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="3"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="1929"/>
     <s v="-"/>
     <n v="1327"/>
@@ -828,8 +917,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="954322"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="4"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="3203"/>
     <s v="-"/>
     <n v="2264"/>
@@ -843,8 +934,10 @@
     <n v="20"/>
     <n v="20"/>
     <n v="954322"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="5"/>
-    <n v="162"/>
+    <x v="5"/>
     <n v="5918"/>
     <s v="-"/>
     <n v="3425"/>
@@ -858,8 +951,10 @@
     <n v="40"/>
     <n v="20"/>
     <n v="45645"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="7"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="11127"/>
     <n v="245"/>
     <n v="7952"/>
@@ -873,8 +968,10 @@
     <n v="40"/>
     <n v="20"/>
     <n v="45645"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="8"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="30427"/>
     <n v="245"/>
     <n v="27908"/>
@@ -888,8 +985,10 @@
     <n v="40"/>
     <n v="20"/>
     <n v="45645"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="9"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="44130"/>
     <n v="245"/>
     <n v="47413"/>
@@ -903,8 +1002,10 @@
     <n v="40"/>
     <n v="20"/>
     <n v="45645"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="10"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="58404"/>
     <n v="244"/>
     <n v="68222"/>
@@ -918,8 +1019,10 @@
     <n v="40"/>
     <n v="20"/>
     <n v="45645"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="11"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="64304"/>
     <n v="244"/>
     <n v="86467"/>
@@ -933,8 +1036,10 @@
     <n v="40"/>
     <n v="20"/>
     <n v="45645"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="12"/>
-    <s v="-"/>
+    <x v="0"/>
     <n v="76451"/>
     <n v="244"/>
     <n v="103244"/>
@@ -948,13 +1053,15 @@
     <n v="40"/>
     <n v="20"/>
     <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="37572"/>
+    <s v="-"/>
+    <n v="22392"/>
+    <s v="-"/>
+    <n v="25383"/>
   </r>
   <r>
     <n v="32"/>
@@ -963,13 +1070,15 @@
     <n v="40"/>
     <n v="20"/>
     <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="97173"/>
+    <s v="-"/>
+    <n v="41804"/>
+    <s v="-"/>
+    <n v="29379"/>
   </r>
   <r>
     <n v="33"/>
@@ -978,13 +1087,15 @@
     <n v="40"/>
     <n v="20"/>
     <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="156283"/>
+    <s v="-"/>
+    <n v="45326"/>
+    <s v="-"/>
+    <n v="40817"/>
   </r>
   <r>
     <n v="34"/>
@@ -993,13 +1104,15 @@
     <n v="40"/>
     <n v="20"/>
     <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="219550"/>
+    <n v="237"/>
+    <n v="96836"/>
+    <n v="227"/>
+    <n v="72793"/>
   </r>
   <r>
     <n v="35"/>
@@ -1008,13 +1121,15 @@
     <n v="40"/>
     <n v="20"/>
     <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="11"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="286825"/>
+    <n v="229"/>
+    <n v="121730"/>
+    <n v="227"/>
+    <n v="99151"/>
   </r>
   <r>
     <n v="36"/>
@@ -1023,38 +1138,44 @@
     <n v="40"/>
     <n v="20"/>
     <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="364844"/>
+    <n v="228"/>
+    <n v="162184"/>
+    <n v="227"/>
+    <n v="109785"/>
   </r>
   <r>
     <n v="37"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="400"/>
+    <n v="60"/>
+    <n v="40"/>
+    <n v="83"/>
+    <s v="off"/>
+    <s v="off"/>
     <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="27524"/>
+    <s v="-"/>
+    <n v="19164"/>
+    <s v="-"/>
+    <n v="8552"/>
   </r>
   <r>
     <n v="38"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1063,13 +1184,15 @@
   </r>
   <r>
     <n v="39"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1078,13 +1201,15 @@
   </r>
   <r>
     <n v="40"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1093,13 +1218,15 @@
   </r>
   <r>
     <n v="41"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1108,13 +1235,15 @@
   </r>
   <r>
     <n v="42"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1123,13 +1252,15 @@
   </r>
   <r>
     <n v="43"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1138,13 +1269,15 @@
   </r>
   <r>
     <n v="44"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1153,13 +1286,15 @@
   </r>
   <r>
     <n v="45"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1168,13 +1303,15 @@
   </r>
   <r>
     <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1183,13 +1320,15 @@
   </r>
   <r>
     <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1200,23 +1339,26 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="2"/>
+      <items count="4">
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="16">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1224,28 +1366,29 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
-        <item x="13"/>
+        <item x="14"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
-    <field x="6"/>
+    <field x="8"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -1297,6 +1440,12 @@
     <i r="1">
       <x v="13"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1325,12 +1474,12 @@
     </i>
   </colItems>
   <dataFields count="6">
-    <dataField name="Mittelwert von obj val without SR" fld="7" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Mittelwert von number of nodes visited  without SR" fld="8" subtotal="average" baseField="1" baseItem="0" numFmtId="1"/>
-    <dataField name="solved problems without SR" fld="7" subtotal="countNums" baseField="1" baseItem="0"/>
-    <dataField name="Mittelwert von obj val with SR" fld="9" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Mittelwert von number of nodes visited with SR" fld="10" subtotal="average" baseField="1" baseItem="0" numFmtId="1"/>
-    <dataField name="solved problems with SR" fld="9" subtotal="countNums" baseField="1" baseItem="0"/>
+    <dataField name="number solved" fld="9" subtotal="countNums" baseField="1" baseItem="0"/>
+    <dataField name="number solved l2" fld="11" subtotal="countNums" baseField="1" baseItem="0"/>
+    <dataField name="number solved l3" fld="13" subtotal="countNums" baseField="8" baseItem="14"/>
+    <dataField name="mean NodeCount" fld="10" subtotal="average" baseField="1" baseItem="0" numFmtId="1"/>
+    <dataField name="mean NodeCount ll2" fld="12" subtotal="average" baseField="1" baseItem="0" numFmtId="1"/>
+    <dataField name="mean NodeCOunt l3" fld="14" subtotal="average" baseField="1" baseItem="0" numFmtId="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1342,23 +1491,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A7:M54" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A7:M54"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A7:O72" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A7:O72"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Test"/>
-    <tableColumn id="11" name="Problem Size" dataDxfId="3">
+    <tableColumn id="11" name="Problem Size" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="n"/>
     <tableColumn id="3" name="p"/>
     <tableColumn id="4" name="r"/>
     <tableColumn id="5" name="tseed"/>
+    <tableColumn id="14" name="Heuristics"/>
+    <tableColumn id="15" name="Cuts"/>
     <tableColumn id="6" name="running time (in s)"/>
-    <tableColumn id="7" name="obj val" dataDxfId="2"/>
+    <tableColumn id="7" name="obj val" dataDxfId="4"/>
     <tableColumn id="8" name="number of nodes visited"/>
-    <tableColumn id="12" name="obj val2" dataDxfId="1"/>
+    <tableColumn id="12" name="obj val2" dataDxfId="3"/>
     <tableColumn id="13" name="number of nodes visited2"/>
-    <tableColumn id="9" name="obj val3" dataDxfId="0"/>
+    <tableColumn id="9" name="obj val3" dataDxfId="2"/>
     <tableColumn id="10" name="number of nodes visited3"/>
   </tableColumns>
   <tableStyleInfo name="Tabellenformat 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1662,26 +1813,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="23.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1692,7 +1844,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1703,12 +1855,12 @@
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1718,12 +1870,12 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1733,7 +1885,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1744,7 +1896,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1755,7 +1907,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -1766,7 +1918,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1777,111 +1929,23 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="24" spans="3:11" ht="75">
-      <c r="C24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>32</v>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="16" spans="1:11" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1894,42 +1958,37 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="23.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1937,25 +1996,27 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
@@ -1970,28 +2031,34 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2011,29 +2078,35 @@
       <c r="F8">
         <v>34534</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8">
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
         <v>986</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8">
+      <c r="L8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
         <v>742</v>
       </c>
-      <c r="L8" s="5">
+      <c r="N8" s="5">
         <v>112</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2053,29 +2126,35 @@
       <c r="F9">
         <v>34534</v>
       </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>6</v>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
       </c>
       <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
         <v>1811</v>
-      </c>
-      <c r="J9" s="5">
-        <v>108</v>
-      </c>
-      <c r="K9">
-        <v>2508</v>
       </c>
       <c r="L9" s="5">
         <v>108</v>
       </c>
       <c r="M9">
+        <v>2508</v>
+      </c>
+      <c r="N9" s="5">
+        <v>108</v>
+      </c>
+      <c r="O9">
         <v>1830</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2095,29 +2174,35 @@
       <c r="F10">
         <v>34534</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
         <v>30</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10">
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10">
         <v>2789</v>
-      </c>
-      <c r="J10" s="5">
-        <v>108</v>
-      </c>
-      <c r="K10">
-        <v>4983</v>
       </c>
       <c r="L10" s="5">
         <v>108</v>
       </c>
       <c r="M10">
+        <v>4983</v>
+      </c>
+      <c r="N10" s="5">
+        <v>108</v>
+      </c>
+      <c r="O10">
         <v>4559</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2137,29 +2222,35 @@
       <c r="F11">
         <v>34534</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
         <v>40</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11">
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
         <v>4965</v>
-      </c>
-      <c r="J11" s="5">
-        <v>108</v>
-      </c>
-      <c r="K11">
-        <v>7834</v>
       </c>
       <c r="L11" s="5">
         <v>108</v>
       </c>
       <c r="M11">
+        <v>7834</v>
+      </c>
+      <c r="N11" s="5">
+        <v>108</v>
+      </c>
+      <c r="O11">
         <v>7136</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2179,29 +2270,35 @@
       <c r="F12">
         <v>34534</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12">
         <v>50</v>
       </c>
-      <c r="H12" s="5">
+      <c r="J12" s="5">
         <v>111</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>6441</v>
-      </c>
-      <c r="J12" s="5">
-        <v>108</v>
-      </c>
-      <c r="K12">
-        <v>11645</v>
       </c>
       <c r="L12" s="5">
         <v>108</v>
       </c>
       <c r="M12">
+        <v>11645</v>
+      </c>
+      <c r="N12" s="5">
+        <v>108</v>
+      </c>
+      <c r="O12">
         <v>11019</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2221,29 +2318,35 @@
       <c r="F13">
         <v>23</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13">
+      <c r="J13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13">
         <v>634</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13">
+      <c r="L13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13">
         <v>624</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13">
+      <c r="N13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13">
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2263,29 +2366,35 @@
       <c r="F14">
         <v>23</v>
       </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>6</v>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
       </c>
       <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14">
         <v>2299</v>
-      </c>
-      <c r="J14" s="5">
-        <v>118</v>
-      </c>
-      <c r="K14">
-        <v>1241</v>
       </c>
       <c r="L14" s="5">
         <v>118</v>
       </c>
       <c r="M14">
+        <v>1241</v>
+      </c>
+      <c r="N14" s="5">
+        <v>118</v>
+      </c>
+      <c r="O14">
         <v>1195</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2305,29 +2414,35 @@
       <c r="F15">
         <v>23</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15">
         <v>30</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15">
+      <c r="J15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
         <v>2569</v>
       </c>
-      <c r="J15" s="5">
+      <c r="L15" s="5">
         <v>115</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>2432</v>
       </c>
-      <c r="L15" s="5">
+      <c r="N15" s="5">
         <v>116</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>2757</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2347,29 +2462,35 @@
       <c r="F16">
         <v>23</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
         <v>40</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16">
+      <c r="J16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16">
         <v>3765</v>
-      </c>
-      <c r="J16" s="5">
-        <v>115</v>
-      </c>
-      <c r="K16">
-        <v>3740</v>
       </c>
       <c r="L16" s="5">
         <v>115</v>
       </c>
       <c r="M16">
+        <v>3740</v>
+      </c>
+      <c r="N16" s="5">
+        <v>115</v>
+      </c>
+      <c r="O16">
         <v>5109</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -2389,29 +2510,35 @@
       <c r="F17">
         <v>23</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
         <v>50</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17">
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17">
         <v>5202</v>
-      </c>
-      <c r="J17" s="5">
-        <v>115</v>
-      </c>
-      <c r="K17">
-        <v>6561</v>
       </c>
       <c r="L17" s="5">
         <v>115</v>
       </c>
       <c r="M17">
+        <v>6561</v>
+      </c>
+      <c r="N17" s="5">
+        <v>115</v>
+      </c>
+      <c r="O17">
         <v>7972</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -2431,29 +2558,35 @@
       <c r="F18">
         <v>23</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
         <v>60</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18">
+      <c r="J18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18">
         <v>6575</v>
-      </c>
-      <c r="J18" s="5">
-        <v>115</v>
-      </c>
-      <c r="K18">
-        <v>8483</v>
       </c>
       <c r="L18" s="5">
         <v>115</v>
       </c>
       <c r="M18">
+        <v>8483</v>
+      </c>
+      <c r="N18" s="5">
+        <v>115</v>
+      </c>
+      <c r="O18">
         <v>8320</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -2473,29 +2606,35 @@
       <c r="F19">
         <v>23</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19">
         <v>70</v>
       </c>
-      <c r="H19" s="5">
+      <c r="J19" s="5">
         <v>121</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>7291</v>
-      </c>
-      <c r="J19" s="5">
-        <v>115</v>
-      </c>
-      <c r="K19">
-        <v>11620</v>
       </c>
       <c r="L19" s="5">
         <v>115</v>
       </c>
       <c r="M19">
+        <v>11620</v>
+      </c>
+      <c r="N19" s="5">
+        <v>115</v>
+      </c>
+      <c r="O19">
         <v>13752</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -2515,29 +2654,35 @@
       <c r="F20">
         <v>6023</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20">
         <v>10</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20">
+      <c r="J20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20">
         <v>1167</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20">
+      <c r="L20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20">
         <v>732</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20">
+      <c r="N20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20">
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2557,29 +2702,35 @@
       <c r="F21">
         <v>6023</v>
       </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>6</v>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
       </c>
       <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
         <v>3079</v>
       </c>
-      <c r="J21" s="5">
+      <c r="L21" s="5">
         <v>112</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>1947</v>
       </c>
-      <c r="L21" s="5">
+      <c r="N21" s="5">
         <v>111</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1718</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -2599,29 +2750,35 @@
       <c r="F22">
         <v>6023</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22">
         <v>30</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22">
+      <c r="J22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22">
         <v>4009</v>
-      </c>
-      <c r="J22" s="5">
-        <v>111</v>
-      </c>
-      <c r="K22">
-        <v>4599</v>
       </c>
       <c r="L22" s="5">
         <v>111</v>
       </c>
       <c r="M22">
+        <v>4599</v>
+      </c>
+      <c r="N22" s="5">
+        <v>111</v>
+      </c>
+      <c r="O22">
         <v>3259</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -2641,29 +2798,35 @@
       <c r="F23">
         <v>6023</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
         <v>40</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23">
+      <c r="J23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23">
         <v>5361</v>
-      </c>
-      <c r="J23" s="5">
-        <v>111</v>
-      </c>
-      <c r="K23">
-        <v>7281</v>
       </c>
       <c r="L23" s="5">
         <v>111</v>
       </c>
       <c r="M23">
+        <v>7281</v>
+      </c>
+      <c r="N23" s="5">
+        <v>111</v>
+      </c>
+      <c r="O23">
         <v>6749</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -2683,29 +2846,35 @@
       <c r="F24">
         <v>6023</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24">
         <v>50</v>
       </c>
-      <c r="H24" s="5">
+      <c r="J24" s="5">
         <v>113</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>7880</v>
-      </c>
-      <c r="J24" s="5">
-        <v>111</v>
-      </c>
-      <c r="K24">
-        <v>7917</v>
       </c>
       <c r="L24" s="5">
         <v>111</v>
       </c>
       <c r="M24">
+        <v>7917</v>
+      </c>
+      <c r="N24" s="5">
+        <v>111</v>
+      </c>
+      <c r="O24">
         <v>9196</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -2725,29 +2894,35 @@
       <c r="F25">
         <v>6023</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25">
         <v>60</v>
       </c>
-      <c r="H25" s="5">
+      <c r="J25" s="5">
         <v>107</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>10363</v>
-      </c>
-      <c r="J25" s="5">
-        <v>111</v>
-      </c>
-      <c r="K25">
-        <v>11379</v>
       </c>
       <c r="L25" s="5">
         <v>111</v>
       </c>
       <c r="M25">
+        <v>11379</v>
+      </c>
+      <c r="N25" s="5">
+        <v>111</v>
+      </c>
+      <c r="O25">
         <v>12222</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -2767,29 +2942,35 @@
       <c r="F26">
         <v>954322</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26">
         <v>10</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26">
+      <c r="J26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26">
         <v>186</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26">
+      <c r="L26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26">
         <v>159</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26">
+      <c r="N26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26">
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -2809,29 +2990,35 @@
       <c r="F27">
         <v>954322</v>
       </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
       </c>
       <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27">
         <v>2224</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27">
+      <c r="L27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27">
         <v>1037</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27">
+      <c r="N27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27">
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
@@ -2851,29 +3038,35 @@
       <c r="F28">
         <v>954322</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
         <v>30</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28">
+      <c r="J28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28">
         <v>1077</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28">
+      <c r="L28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28">
         <v>1065</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28">
+      <c r="N28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28">
         <v>2354</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
@@ -2893,29 +3086,35 @@
       <c r="F29">
         <v>954322</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29">
         <v>40</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29">
+      <c r="J29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29">
         <v>1929</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29">
+      <c r="L29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29">
         <v>1327</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29">
+      <c r="N29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29">
         <v>3233</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2935,29 +3134,35 @@
       <c r="F30">
         <v>954322</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30">
         <v>50</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30">
+      <c r="J30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30">
         <v>3203</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30">
+      <c r="L30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30">
         <v>2264</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30">
+      <c r="N30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30">
         <v>4191</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
@@ -2977,29 +3182,35 @@
       <c r="F31">
         <v>954322</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31">
         <v>60</v>
       </c>
-      <c r="H31" s="5">
+      <c r="J31" s="5">
         <v>162</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>5918</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31">
+      <c r="L31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31">
         <v>3425</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31">
+      <c r="N31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31">
         <v>4421</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
@@ -3019,29 +3230,35 @@
       <c r="F32">
         <v>45645</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32">
         <v>500</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32">
+      <c r="J32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32">
         <v>11127</v>
       </c>
-      <c r="J32" s="5">
+      <c r="L32" s="5">
         <v>245</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>7952</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32">
+      <c r="N32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32">
         <v>11387</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
@@ -3061,29 +3278,35 @@
       <c r="F33">
         <v>45645</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33">
         <v>1000</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33">
+      <c r="J33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33">
         <v>30427</v>
       </c>
-      <c r="J33" s="5">
+      <c r="L33" s="5">
         <v>245</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>27908</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33">
+      <c r="N33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33">
         <v>22011</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
@@ -3103,29 +3326,35 @@
       <c r="F34">
         <v>45645</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34">
         <v>1500</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34">
+      <c r="J34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34">
         <v>44130</v>
-      </c>
-      <c r="J34" s="5">
-        <v>245</v>
-      </c>
-      <c r="K34">
-        <v>47413</v>
       </c>
       <c r="L34" s="5">
         <v>245</v>
       </c>
       <c r="M34">
+        <v>47413</v>
+      </c>
+      <c r="N34" s="5">
+        <v>245</v>
+      </c>
+      <c r="O34">
         <v>26627</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
@@ -3145,29 +3374,35 @@
       <c r="F35">
         <v>45645</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35">
         <v>2000</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35">
+      <c r="J35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35">
         <v>58404</v>
       </c>
-      <c r="J35" s="5">
+      <c r="L35" s="5">
         <v>244</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>68222</v>
       </c>
-      <c r="L35" s="5">
+      <c r="N35" s="5">
         <v>245</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>55612</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
@@ -3187,29 +3422,35 @@
       <c r="F36">
         <v>45645</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36">
         <v>2500</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36">
+      <c r="J36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36">
         <v>64304</v>
       </c>
-      <c r="J36" s="5">
+      <c r="L36" s="5">
         <v>244</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>86467</v>
       </c>
-      <c r="L36" s="5">
+      <c r="N36" s="5">
         <v>245</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>74245</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
@@ -3229,29 +3470,35 @@
       <c r="F37">
         <v>45645</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37">
         <v>3000</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37">
+      <c r="J37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37">
         <v>76451</v>
       </c>
-      <c r="J37" s="5">
+      <c r="L37" s="5">
         <v>244</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>103244</v>
       </c>
-      <c r="L37" s="5">
+      <c r="N37" s="5">
         <v>245</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>89265</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
@@ -3271,19 +3518,35 @@
       <c r="F38">
         <v>83</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38">
         <v>500</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>37572</v>
+      </c>
       <c r="L38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="M38">
+        <v>22392</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38">
         <v>25383</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
@@ -3303,19 +3566,35 @@
       <c r="F39">
         <v>83</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39">
         <v>1000</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>97173</v>
+      </c>
       <c r="L39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="M39">
+        <v>41804</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39">
         <v>29379</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
@@ -3335,19 +3614,35 @@
       <c r="F40">
         <v>83</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40">
         <v>1500</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>156283</v>
+      </c>
       <c r="L40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="M40">
+        <v>45326</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40">
         <v>40817</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
@@ -3367,16 +3662,35 @@
       <c r="F41">
         <v>83</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41">
         <v>2000</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>219550</v>
+      </c>
       <c r="L41" s="5">
+        <v>237</v>
+      </c>
+      <c r="M41">
+        <v>96836</v>
+      </c>
+      <c r="N41" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>72793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
@@ -3396,14 +3710,35 @@
       <c r="F42">
         <v>83</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42">
         <v>2500</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="J42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>286825</v>
+      </c>
+      <c r="L42" s="5">
+        <v>229</v>
+      </c>
+      <c r="M42">
+        <v>121730</v>
+      </c>
+      <c r="N42" s="5">
+        <v>227</v>
+      </c>
+      <c r="O42">
+        <v>99151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
@@ -3423,110 +3758,293 @@
       <c r="F43">
         <v>83</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43">
         <v>3000</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="J43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>364844</v>
+      </c>
+      <c r="L43" s="5">
+        <v>228</v>
+      </c>
+      <c r="M43">
+        <v>162184</v>
+      </c>
+      <c r="N43" s="5">
+        <v>227</v>
+      </c>
+      <c r="O43">
+        <v>109785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
       <c r="B44" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:13">
+        <v>n:400 - p:60 - r:40</v>
+      </c>
+      <c r="C44">
+        <v>400</v>
+      </c>
+      <c r="D44">
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <v>8000</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>27524</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>19164</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
       <c r="B45" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H45" s="5"/>
+        <v>n:200 - p:40 - r:20</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
       <c r="B46" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H46" s="5"/>
+        <v>n:200 - p:40 - r:20</v>
+      </c>
+      <c r="C46">
+        <v>200</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
       <c r="B47" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H47" s="5"/>
+        <v>n:200 - p:40 - r:20</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
       <c r="B48" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H48" s="5"/>
+        <v>n:200 - p:40 - r:20</v>
+      </c>
+      <c r="C48">
+        <v>200</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
       <c r="J48" s="5"/>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
       <c r="B49" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H49" s="5"/>
+        <v>n:200 - p:40 - r:20</v>
+      </c>
+      <c r="C49">
+        <v>200</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
       <c r="J49" s="5"/>
       <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
       <c r="B50" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H50" s="5"/>
+        <v>n:200 - p:40 - r:20</v>
+      </c>
+      <c r="C50">
+        <v>200</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
       <c r="J50" s="5"/>
       <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
       <c r="B51" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
-      <c r="H51" s="5"/>
+        <v>n:400 - p:60 - r:40</v>
+      </c>
+      <c r="C51">
+        <v>400</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
@@ -3534,34 +4052,206 @@
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
         <v>n: - p: - r:</v>
       </c>
-      <c r="H52" s="5"/>
       <c r="J52" s="5"/>
       <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
         <v>n: - p: - r:</v>
       </c>
-      <c r="H53" s="5"/>
       <c r="J53" s="5"/>
       <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
         <v>n: - p: - r:</v>
       </c>
-      <c r="H54" s="5"/>
       <c r="J54" s="5"/>
       <c r="L54" s="5"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="19" t="str">
+        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
+        <v>n: - p: - r:</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="N72" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
+  <conditionalFormatting sqref="G8:G72">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="on">
+      <formula>NOT(ISERROR(SEARCH("on",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H72">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="on">
+      <formula>NOT(ISERROR(SEARCH("on",H8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3575,21 +4265,20 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A3:G21"/>
+  <dimension ref="A3:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="47.85546875" bestFit="1" customWidth="1"/>
@@ -3617,396 +4306,431 @@
     <col min="55" max="55" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
         <v>743.25</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19" t="e">
-        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="20">
         <v>564.25</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="20">
+        <v>605.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="18">
-        <v>20</v>
-      </c>
-      <c r="B8" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20">
         <v>2353.25</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>112.66666666666667</v>
       </c>
       <c r="F8" s="20">
         <v>1683.25</v>
       </c>
-      <c r="G8" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="20">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>30</v>
       </c>
-      <c r="B9" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="20">
         <v>2611</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>111.33333333333333</v>
       </c>
       <c r="F9" s="20">
         <v>3269.75</v>
       </c>
-      <c r="G9" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="20">
+        <v>3232.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>40</v>
       </c>
-      <c r="B10" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20">
         <v>4005</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <v>111.33333333333333</v>
       </c>
       <c r="F10" s="20">
         <v>5045.5</v>
       </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="20">
+        <v>5556.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>50</v>
       </c>
       <c r="B11" s="19">
-        <v>112</v>
-      </c>
-      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3</v>
+      </c>
+      <c r="E11" s="20">
         <v>5681.5</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19">
-        <v>111.33333333333333</v>
       </c>
       <c r="F11" s="20">
         <v>7096.75</v>
       </c>
-      <c r="G11" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="20">
+        <v>8094.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>60</v>
       </c>
       <c r="B12" s="19">
-        <v>134.5</v>
-      </c>
-      <c r="C12" s="20">
-        <v>7618.666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
       </c>
       <c r="D12" s="19">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
-        <v>113</v>
+      <c r="E12" s="20">
+        <v>7618.666666666667</v>
       </c>
       <c r="F12" s="20">
         <v>7762.333333333333</v>
       </c>
-      <c r="G12" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="20">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>70</v>
       </c>
       <c r="B13" s="19">
-        <v>121</v>
-      </c>
-      <c r="C13" s="20">
-        <v>7291</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
-        <v>115</v>
+      <c r="E13" s="20">
+        <v>7291</v>
       </c>
       <c r="F13" s="20">
         <v>11620</v>
       </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="20">
+        <v>13752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>500</v>
       </c>
-      <c r="B15" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="20">
-        <v>11127</v>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="19">
-        <v>245</v>
+      <c r="E15" s="20">
+        <v>24349.5</v>
       </c>
       <c r="F15" s="20">
-        <v>7952</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>15172</v>
+      </c>
+      <c r="G15" s="20">
+        <v>18385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>1000</v>
       </c>
-      <c r="B16" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="20">
-        <v>30427</v>
+      <c r="B16" s="19">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E16" s="19">
-        <v>245</v>
+      <c r="E16" s="20">
+        <v>63800</v>
       </c>
       <c r="F16" s="20">
-        <v>27908</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>34856</v>
+      </c>
+      <c r="G16" s="20">
+        <v>25695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>1500</v>
       </c>
-      <c r="B17" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="20">
-        <v>44130</v>
+      <c r="B17" s="19">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
       </c>
       <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19">
-        <v>245</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
+        <v>100206.5</v>
       </c>
       <c r="F17" s="20">
-        <v>47413</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>46369.5</v>
+      </c>
+      <c r="G17" s="20">
+        <v>33722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2000</v>
       </c>
-      <c r="B18" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="20">
-        <v>58404</v>
+      <c r="B18" s="19">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2</v>
       </c>
       <c r="D18" s="19">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
-        <v>244</v>
+        <v>2</v>
+      </c>
+      <c r="E18" s="20">
+        <v>138977</v>
       </c>
       <c r="F18" s="20">
-        <v>68222</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>82529</v>
+      </c>
+      <c r="G18" s="20">
+        <v>64202.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2500</v>
       </c>
-      <c r="B19" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19" s="20">
-        <v>64304</v>
+      <c r="B19" s="19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
       </c>
       <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <v>244</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>175564.5</v>
       </c>
       <c r="F19" s="20">
-        <v>86467</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>104098.5</v>
+      </c>
+      <c r="G19" s="20">
+        <v>86698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>3000</v>
       </c>
-      <c r="B20" s="19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="20">
-        <v>76451</v>
+      <c r="B20" s="19">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2</v>
       </c>
       <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20">
+        <v>220647.5</v>
+      </c>
+      <c r="F20" s="20">
+        <v>132714</v>
+      </c>
+      <c r="G20" s="20">
+        <v>99525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>8000</v>
+      </c>
+      <c r="B22" s="19">
         <v>0</v>
       </c>
-      <c r="E20" s="19">
-        <v>244</v>
-      </c>
-      <c r="F20" s="20">
-        <v>103244</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="19">
-        <v>122.8</v>
-      </c>
-      <c r="C21" s="20">
-        <v>12552.2</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>27524</v>
+      </c>
+      <c r="F22" s="20">
+        <v>19164</v>
+      </c>
+      <c r="G22" s="20">
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="19">
         <v>5</v>
       </c>
-      <c r="E21" s="19">
-        <v>149.9047619047619</v>
-      </c>
-      <c r="F21" s="20">
-        <v>14891.7</v>
-      </c>
-      <c r="G21" s="19">
-        <v>21</v>
+      <c r="C23" s="19">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19">
+        <v>23</v>
+      </c>
+      <c r="E23" s="20">
+        <v>42333.432432432433</v>
+      </c>
+      <c r="F23" s="20">
+        <v>25842.891891891893</v>
+      </c>
+      <c r="G23" s="20">
+        <v>21058.62162162162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/GurobiModel/Symmetry_Lexicographic_ordering_evaluation.xlsx
+++ b/GurobiModel/Symmetry_Lexicographic_ordering_evaluation.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="44">
   <si>
     <t>n</t>
   </si>
@@ -157,10 +157,10 @@
     <t>mean NodeCOunt l3</t>
   </si>
   <si>
-    <t>on</t>
+    <t>Symmetry removal seems to be always faster. The tigther constraint of l3 does not really lead to faster results, but sometimes to slightly worse( a few rooms more) objective value</t>
   </si>
   <si>
-    <t>Symmetry removel seems to be always faster. The tigther constraint of l3 does not really lead to faster results, but sometimes to slightly worse( a few rooms more) objective value</t>
+    <t>The data sets are real data. The function chooses at random(determined by the seed) a subet of the real data (tumOnline and Moses data)</t>
   </si>
 </sst>
 </file>
@@ -371,29 +371,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -429,6 +419,16 @@
           <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1339,7 +1339,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -1491,11 +1491,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A7:O72" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A7:O72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A7:O51" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A7:O51"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Test"/>
-    <tableColumn id="11" name="Problem Size" dataDxfId="5">
+    <tableColumn id="11" name="Problem Size" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="n"/>
@@ -1505,11 +1505,11 @@
     <tableColumn id="14" name="Heuristics"/>
     <tableColumn id="15" name="Cuts"/>
     <tableColumn id="6" name="running time (in s)"/>
-    <tableColumn id="7" name="obj val" dataDxfId="4"/>
+    <tableColumn id="7" name="obj val" dataDxfId="2"/>
     <tableColumn id="8" name="number of nodes visited"/>
-    <tableColumn id="12" name="obj val2" dataDxfId="3"/>
+    <tableColumn id="12" name="obj val2" dataDxfId="1"/>
     <tableColumn id="13" name="number of nodes visited2"/>
-    <tableColumn id="9" name="obj val3" dataDxfId="2"/>
+    <tableColumn id="9" name="obj val3" dataDxfId="0"/>
     <tableColumn id="10" name="number of nodes visited3"/>
   </tableColumns>
   <tableStyleInfo name="Tabellenformat 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1813,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,9 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1856,12 +1858,8 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1871,11 +1869,11 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
-        <v>17</v>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1886,8 +1884,12 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1929,23 +1931,34 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="16" spans="1:11" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="C16" s="23" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="17" spans="3:4" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>43</v>
+      <c r="D17" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1960,20 +1973,20 @@
   </sheetPr>
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
     <col min="16" max="16" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1998,18 +2011,18 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="22"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -3835,403 +3848,159 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="B45" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:200 - p:40 - r:20</v>
-      </c>
-      <c r="C45">
-        <v>200</v>
-      </c>
-      <c r="D45">
-        <v>40</v>
-      </c>
-      <c r="E45">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>83</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" t="s">
-        <v>42</v>
-      </c>
       <c r="J45" s="5"/>
       <c r="L45" s="5"/>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>39</v>
-      </c>
-      <c r="B46" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:200 - p:40 - r:20</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-      <c r="D46">
-        <v>40</v>
-      </c>
-      <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="F46">
-        <v>83</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" t="s">
-        <v>42</v>
-      </c>
       <c r="J46" s="5"/>
       <c r="L46" s="5"/>
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>40</v>
-      </c>
-      <c r="B47" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:200 - p:40 - r:20</v>
-      </c>
-      <c r="C47">
-        <v>200</v>
-      </c>
-      <c r="D47">
-        <v>40</v>
-      </c>
-      <c r="E47">
-        <v>20</v>
-      </c>
-      <c r="F47">
-        <v>83</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" t="s">
-        <v>42</v>
-      </c>
       <c r="J47" s="5"/>
       <c r="L47" s="5"/>
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>41</v>
-      </c>
-      <c r="B48" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:200 - p:40 - r:20</v>
-      </c>
-      <c r="C48">
-        <v>200</v>
-      </c>
-      <c r="D48">
-        <v>40</v>
-      </c>
-      <c r="E48">
-        <v>20</v>
-      </c>
-      <c r="F48">
-        <v>83</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s">
-        <v>42</v>
-      </c>
       <c r="J48" s="5"/>
       <c r="L48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>42</v>
-      </c>
-      <c r="B49" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:200 - p:40 - r:20</v>
-      </c>
-      <c r="C49">
-        <v>200</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
-      <c r="E49">
-        <v>20</v>
-      </c>
-      <c r="F49">
-        <v>83</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" t="s">
-        <v>42</v>
-      </c>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J49" s="5"/>
       <c r="L49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>43</v>
-      </c>
-      <c r="B50" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:200 - p:40 - r:20</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-      <c r="F50">
-        <v>83</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" t="s">
-        <v>42</v>
-      </c>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J50" s="5"/>
       <c r="L50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>44</v>
-      </c>
-      <c r="B51" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n:400 - p:60 - r:40</v>
-      </c>
-      <c r="C51">
-        <v>400</v>
-      </c>
-      <c r="D51">
-        <v>60</v>
-      </c>
-      <c r="E51">
-        <v>40</v>
-      </c>
-      <c r="F51">
-        <v>83</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" t="s">
-        <v>42</v>
-      </c>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J51" s="5"/>
       <c r="L51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>45</v>
-      </c>
-      <c r="B52" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J52" s="5"/>
       <c r="L52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J53" s="5"/>
       <c r="L53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J54" s="5"/>
       <c r="L54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
       <c r="J55" s="5"/>
       <c r="L55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
       <c r="J56" s="5"/>
       <c r="L56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
       <c r="J57" s="5"/>
       <c r="L57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
       <c r="J58" s="5"/>
       <c r="L58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
       <c r="J59" s="5"/>
       <c r="L59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
       <c r="J60" s="5"/>
       <c r="L60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
       <c r="J61" s="5"/>
       <c r="L61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
       <c r="J62" s="5"/>
       <c r="L62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
       <c r="J63" s="5"/>
       <c r="L63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
       <c r="J64" s="5"/>
       <c r="L64" s="5"/>
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B65" s="19"/>
       <c r="J65" s="5"/>
       <c r="L65" s="5"/>
       <c r="N65" s="5"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B66" s="19"/>
       <c r="J66" s="5"/>
       <c r="L66" s="5"/>
       <c r="N66" s="5"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B67" s="19"/>
       <c r="J67" s="5"/>
       <c r="L67" s="5"/>
       <c r="N67" s="5"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B68" s="19"/>
       <c r="J68" s="5"/>
       <c r="L68" s="5"/>
       <c r="N68" s="5"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B69" s="19"/>
       <c r="J69" s="5"/>
       <c r="L69" s="5"/>
       <c r="N69" s="5"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B70" s="19"/>
       <c r="J70" s="5"/>
       <c r="L70" s="5"/>
       <c r="N70" s="5"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B71" s="19"/>
       <c r="J71" s="5"/>
       <c r="L71" s="5"/>
       <c r="N71" s="5"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="str">
-        <f>CONCATENATE("n:",Tabelle1[[#This Row],[n]]," - p:",Tabelle1[[#This Row],[p]]," - r:",Tabelle1[[#This Row],[r]],)</f>
-        <v>n: - p: - r:</v>
-      </c>
+      <c r="B72" s="19"/>
       <c r="J72" s="5"/>
       <c r="L72" s="5"/>
       <c r="N72" s="5"/>
@@ -4242,13 +4011,13 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G72">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="on">
+  <conditionalFormatting sqref="G8:G51">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="on">
       <formula>NOT(ISERROR(SEARCH("on",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H72">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="on">
+  <conditionalFormatting sqref="H8:H51">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="on">
       <formula>NOT(ISERROR(SEARCH("on",H8)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GurobiModel/Symmetry_Lexicographic_ordering_evaluation.xlsx
+++ b/GurobiModel/Symmetry_Lexicographic_ordering_evaluation.xlsx
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
